--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/SheetFedOffset/Sheet Fed Offset.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/SheetFedOffset/Sheet Fed Offset.xlsx
@@ -455,27 +455,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,1049 +773,1051 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6">
         <v>2000</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="6">
         <v>3000</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <v>5000</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>7000</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="6">
         <v>9000</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>80</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>6000</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="6">
         <v>7000</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <v>8000</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="6">
         <v>90000</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <v>150</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <v>8000</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="6">
         <v>9000</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <v>10000</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="6">
         <v>11000</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="6">
         <v>12000</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="6">
         <v>300</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="6">
         <v>8500</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="6">
         <v>9000</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="6">
         <v>10000</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="6">
         <v>11000</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="6">
         <v>12000</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10">
         <v>2</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10">
         <v>7</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C35:H39"/>
+  <mergeCells count="6">
     <mergeCell ref="I35:N39"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="I16:N16"/>
-    <mergeCell ref="C19:H20"/>
     <mergeCell ref="I19:N20"/>
   </mergeCells>
   <dataValidations count="5">

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/SheetFedOffset/Sheet Fed Offset.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/SheetFedOffset/Sheet Fed Offset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="-4650" yWindow="870" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Fed Offset" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>Sheet Fed Offset Add</t>
   </si>
@@ -30,18 +30,12 @@
     <t>Press Name</t>
   </si>
   <si>
-    <t>Litho</t>
-  </si>
-  <si>
     <t>Litho Large</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Litho Press </t>
-  </si>
-  <si>
     <t>Litho Press Large</t>
   </si>
   <si>
@@ -63,27 +57,18 @@
     <t>Height</t>
   </si>
   <si>
-    <t>320.00</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
     <t>Width</t>
   </si>
   <si>
-    <t>142.02</t>
-  </si>
-  <si>
     <t>17.00</t>
   </si>
   <si>
     <t>Maximum Sheet Weight</t>
   </si>
   <si>
-    <t>301.00</t>
-  </si>
-  <si>
     <t>30.21</t>
   </si>
   <si>
@@ -93,15 +78,9 @@
     <t>Non Print Image Side Area</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <t>5.23</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>1.23</t>
   </si>
   <si>
@@ -123,9 +102,6 @@
     <t>42.23</t>
   </si>
   <si>
-    <t>Setu up spoilage number of sheets</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -147,9 +123,6 @@
     <t>Default Print Sheet Size</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>SRA3</t>
   </si>
   <si>
@@ -222,18 +195,12 @@
     <t>Minimum Running Charge($)</t>
   </si>
   <si>
-    <t>15.01</t>
-  </si>
-  <si>
     <t>12.15</t>
   </si>
   <si>
     <t>Wash Up Charge Per Color($)</t>
   </si>
   <si>
-    <t>2.01</t>
-  </si>
-  <si>
     <t>21.26</t>
   </si>
   <si>
@@ -246,9 +213,6 @@
     <t>Unit Of Measure</t>
   </si>
   <si>
-    <t>1256</t>
-  </si>
-  <si>
     <t>6234</t>
   </si>
   <si>
@@ -261,9 +225,6 @@
     <t>Press Hourly Charge Rate ($)</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>124.32</t>
   </si>
   <si>
@@ -352,13 +313,73 @@
   </si>
   <si>
     <t>12.02</t>
+  </si>
+  <si>
+    <t>Rapida 76</t>
+  </si>
+  <si>
+    <t>Live Data Linked with Other Modules Dont Delete</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>594.00</t>
+  </si>
+  <si>
+    <t>Setup spoilage number of sheets</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>A2 50 in pack</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Guilotine</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Cyan Ink Yield</t>
+  </si>
+  <si>
+    <t>Magenta Ink Yield</t>
+  </si>
+  <si>
+    <t>Yellow Ink Yield</t>
+  </si>
+  <si>
+    <t>Key Ink Yield</t>
+  </si>
+  <si>
+    <t>Red Ink Yield</t>
+  </si>
+  <si>
+    <t>SFOffset Plate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +419,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +478,12 @@
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -452,10 +494,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -467,6 +513,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,13 +525,18 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -773,14 +827,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
@@ -788,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
@@ -811,7 +869,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -819,7 +877,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -829,11 +887,11 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
+      <c r="C3" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -841,7 +899,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -851,11 +909,11 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -863,7 +921,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -873,11 +931,11 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -885,7 +943,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -895,13 +953,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -909,7 +967,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -920,10 +978,10 @@
     <row r="7" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -931,7 +989,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -941,11 +999,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
+      <c r="C8" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -953,7 +1011,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -963,7 +1021,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -981,13 +1039,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -995,7 +1053,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1006,10 +1064,10 @@
     <row r="11" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1017,7 +1075,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1027,13 +1085,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1041,7 +1099,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1052,10 +1110,10 @@
     <row r="13" spans="1:14">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1063,7 +1121,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1073,11 +1131,11 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1085,7 +1143,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1095,11 +1153,11 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
+      <c r="C15" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1107,7 +1165,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1117,33 +1175,33 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="11" t="s">
-        <v>41</v>
+      <c r="C16" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="I16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1151,7 +1209,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1161,11 +1219,11 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1173,7 +1231,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -1183,145 +1241,147 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>53</v>
+      <c r="D21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>68</v>
+      <c r="C24" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1329,7 +1389,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -1339,24 +1399,24 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1365,11 +1425,11 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
+      <c r="C26" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1377,7 +1437,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1387,11 +1447,11 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>76</v>
+      <c r="C27" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1399,7 +1459,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1409,11 +1469,11 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1421,7 +1481,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -1431,11 +1491,11 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>81</v>
+      <c r="C29" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1443,7 +1503,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1453,24 +1513,24 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6">
@@ -1491,26 +1551,26 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I31" s="6">
         <v>80</v>
@@ -1535,22 +1595,22 @@
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I32" s="6">
         <v>150</v>
@@ -1575,22 +1635,22 @@
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I33" s="6">
         <v>300</v>
@@ -1613,11 +1673,11 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1625,7 +1685,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -1635,101 +1695,109 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="C35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="C36" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+      <c r="C37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="C38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B39" s="9"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+      <c r="C39" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="7"/>
@@ -1747,11 +1815,11 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="10">
-        <v>2</v>
+      <c r="C41" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1759,7 +1827,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1769,11 +1837,11 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="10">
-        <v>7</v>
+      <c r="C42" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1781,7 +1849,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="6" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -1791,11 +1859,11 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1803,7 +1871,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -1812,11 +1880,10 @@
       <c r="N43" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="I35:N39"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I16:N16"/>
     <mergeCell ref="I19:N20"/>
   </mergeCells>
@@ -1842,7 +1909,18 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1" location="'SFOffset Plate '!A1" display="SFOffset Plate "/>
+    <hyperlink ref="C16" r:id="rId2" location="'A2 50 in pack'!A1"/>
+    <hyperlink ref="C20" r:id="rId3" location="Guillotine!A1"/>
+    <hyperlink ref="C35" r:id="rId4" location="'Cyan Ink Yield'!A1"/>
+    <hyperlink ref="C36" r:id="rId5" location="'Majenta Ink Yield'!A1"/>
+    <hyperlink ref="C37" r:id="rId6" location="'Yellow Ink Yield'!A1"/>
+    <hyperlink ref="C38" r:id="rId7" location="'Key Ink Yield'!A1"/>
+    <hyperlink ref="C39" r:id="rId8" location="'Red Ink Yield'!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
